--- a/Jogos_do_Dia/2023-08-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -124,36 +124,36 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
     <t>Russia Russian Premier League</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Sweden Allsvenskan</t>
+    <t>Romania Liga I</t>
   </si>
   <si>
     <t>Spain La Liga</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -253,63 +253,63 @@
     <t>Cheonan City</t>
   </si>
   <si>
+    <t>Etar</t>
+  </si>
+  <si>
     <t>Novi Pazar</t>
   </si>
   <si>
-    <t>Etar</t>
-  </si>
-  <si>
     <t>Olimpiyets</t>
   </si>
   <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
     <t>Mirandés</t>
   </si>
   <si>
-    <t>Warta Poznań</t>
-  </si>
-  <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Örebro</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
-    <t>Värnamo</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
+    <t>Dinamo Bucureşti</t>
   </si>
   <si>
     <t>Cádiz</t>
   </si>
   <si>
-    <t>Dinamo Bucureşti</t>
-  </si>
-  <si>
     <t>Moreirense FC</t>
   </si>
   <si>
     <t>Fatih Karagümrük</t>
   </si>
   <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>AZ II</t>
+    <t>Koper</t>
   </si>
   <si>
     <t>Levski Krumovgrad</t>
   </si>
   <si>
-    <t>Koper</t>
-  </si>
-  <si>
     <t>Bordeaux</t>
   </si>
   <si>
@@ -343,75 +343,75 @@
     <t>Sportivo Trinidense</t>
   </si>
   <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
     <t>Universidad Chile</t>
   </si>
   <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
     <t>Gyeongnam</t>
   </si>
   <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
+    <t>Beroe</t>
+  </si>
+  <si>
     <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>Beroe</t>
-  </si>
-  <si>
     <t>Akhmat Grozny</t>
   </si>
   <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
     <t>AD Alcorcón</t>
   </si>
   <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Hvidovre</t>
-  </si>
-  <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
-    <t>Skövde AIK</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
+    <t>Botoşani</t>
   </si>
   <si>
     <t>Deportivo Alavés</t>
   </si>
   <si>
-    <t>Botoşani</t>
-  </si>
-  <si>
     <t>Porto</t>
   </si>
   <si>
     <t>Beşiktaş</t>
   </si>
   <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
+    <t>Mura</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Mura</t>
-  </si>
-  <si>
     <t>Concarneau</t>
   </si>
   <si>
@@ -445,10 +445,10 @@
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
     <t>Curicó Unido</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
   </si>
 </sst>
 </file>
@@ -943,13 +943,13 @@
         <v>111</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -967,7 +967,7 @@
         <v>1.9</v>
       </c>
       <c r="O2">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P2">
         <v>1.38</v>
@@ -1050,13 +1050,13 @@
         <v>112</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1131,7 +1131,7 @@
         <v>3.34</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -1157,67 +1157,67 @@
         <v>113</v>
       </c>
       <c r="G4">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K4">
-        <v>7.7</v>
+        <v>6.25</v>
       </c>
       <c r="L4">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M4">
-        <v>2.93</v>
+        <v>2.54</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="O4">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P4">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Q4">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="R4">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S4">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="U4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="V4">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Z4">
-        <v>1.76</v>
+        <v>0.99</v>
       </c>
       <c r="AA4">
-        <v>3.41</v>
+        <v>2.49</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>80</v>
@@ -1264,67 +1264,67 @@
         <v>114</v>
       </c>
       <c r="G5">
-        <v>2.65</v>
+        <v>1.76</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5">
-        <v>2.65</v>
+        <v>4.7</v>
       </c>
       <c r="J5">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K5">
-        <v>6.25</v>
+        <v>7.7</v>
       </c>
       <c r="L5">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>2.54</v>
+        <v>2.93</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="P5">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="Q5">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="R5">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="T5">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="U5">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="V5">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="Z5">
-        <v>0.99</v>
+        <v>1.76</v>
       </c>
       <c r="AA5">
-        <v>2.49</v>
+        <v>3.41</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1371,13 +1371,13 @@
         <v>115</v>
       </c>
       <c r="G6">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1469,7 +1469,7 @@
         <v>62</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>82</v>
@@ -1478,91 +1478,91 @@
         <v>116</v>
       </c>
       <c r="G7">
-        <v>2.43</v>
+        <v>2.03</v>
       </c>
       <c r="H7">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
+        <v>3.2</v>
+      </c>
+      <c r="J7">
+        <v>1.05</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>1.25</v>
+      </c>
+      <c r="M7">
+        <v>3.75</v>
+      </c>
+      <c r="N7">
+        <v>1.7</v>
+      </c>
+      <c r="O7">
+        <v>1.95</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.67</v>
+      </c>
+      <c r="S7">
+        <v>2.1</v>
+      </c>
+      <c r="T7">
+        <v>1.29</v>
+      </c>
+      <c r="U7">
+        <v>1.3</v>
+      </c>
+      <c r="V7">
+        <v>1.73</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1.59</v>
+      </c>
+      <c r="Z7">
+        <v>1.09</v>
+      </c>
+      <c r="AA7">
         <v>2.68</v>
       </c>
-      <c r="J7">
-        <v>1.09</v>
-      </c>
-      <c r="K7">
+      <c r="AB7">
+        <v>1.74</v>
+      </c>
+      <c r="AC7">
         <v>7.5</v>
       </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>2.45</v>
-      </c>
-      <c r="N7">
-        <v>2.48</v>
-      </c>
-      <c r="O7">
-        <v>1.52</v>
-      </c>
-      <c r="P7">
-        <v>1.57</v>
-      </c>
-      <c r="Q7">
-        <v>2.25</v>
-      </c>
-      <c r="R7">
-        <v>2.1</v>
-      </c>
-      <c r="S7">
-        <v>1.67</v>
-      </c>
-      <c r="T7">
-        <v>1.39</v>
-      </c>
-      <c r="U7">
-        <v>1.35</v>
-      </c>
-      <c r="V7">
-        <v>1.51</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1.68</v>
-      </c>
-      <c r="AC7">
-        <v>7</v>
-      </c>
       <c r="AD7">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AE7">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AG7">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="AH7">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1576,7 +1576,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
@@ -1585,96 +1585,96 @@
         <v>117</v>
       </c>
       <c r="G8">
-        <v>1.87</v>
+        <v>4.15</v>
       </c>
       <c r="H8">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I8">
-        <v>4.2</v>
+        <v>1.77</v>
       </c>
       <c r="J8">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>11.75</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M8">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="O8">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="P8">
+        <v>1.36</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1.88</v>
+      </c>
+      <c r="S8">
+        <v>1.88</v>
+      </c>
+      <c r="T8">
+        <v>2.05</v>
+      </c>
+      <c r="U8">
+        <v>1.28</v>
+      </c>
+      <c r="V8">
+        <v>1.22</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>1.45</v>
+      </c>
+      <c r="Z8">
+        <v>1.74</v>
+      </c>
+      <c r="AA8">
+        <v>3.19</v>
+      </c>
+      <c r="AB8">
+        <v>3.1</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
         <v>1.5</v>
       </c>
-      <c r="Q8">
-        <v>2.5</v>
-      </c>
-      <c r="R8">
-        <v>2.05</v>
-      </c>
-      <c r="S8">
-        <v>1.7</v>
-      </c>
-      <c r="T8">
+      <c r="AE8">
         <v>1.2</v>
       </c>
-      <c r="U8">
-        <v>1.33</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
-      <c r="W8">
-        <v>1.5</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1.24</v>
-      </c>
-      <c r="Z8">
-        <v>0.87</v>
-      </c>
-      <c r="AA8">
-        <v>2.11</v>
-      </c>
-      <c r="AB8">
-        <v>1.55</v>
-      </c>
-      <c r="AC8">
-        <v>7.5</v>
-      </c>
-      <c r="AD8">
-        <v>3.1</v>
-      </c>
-      <c r="AE8">
-        <v>1.27</v>
-      </c>
       <c r="AF8">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AG8">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AH8">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="AI8">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>45152</v>
@@ -1683,7 +1683,7 @@
         <v>62</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
@@ -1692,96 +1692,96 @@
         <v>118</v>
       </c>
       <c r="G9">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="H9">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="I9">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M9">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1.62</v>
+        <v>2.01</v>
       </c>
       <c r="O9">
-        <v>2.29</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S9">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="T9">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="U9">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="V9">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="X9">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="Y9">
-        <v>1.76</v>
+        <v>1.13</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AA9">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="AB9">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE9">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="AF9">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="AG9">
-        <v>2.4</v>
+        <v>1.43</v>
       </c>
       <c r="AH9">
-        <v>3.2</v>
+        <v>1.74</v>
       </c>
       <c r="AI9">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45152</v>
@@ -1799,28 +1799,28 @@
         <v>119</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I10">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="L10">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1829,66 +1829,66 @@
         <v>1.33</v>
       </c>
       <c r="Q10">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R10">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="T10">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="U10">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="V10">
-        <v>1.73</v>
+        <v>2.11</v>
       </c>
       <c r="W10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="Y10">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="Z10">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AA10">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="AB10">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="AC10">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="AE10">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AG10">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AH10">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="AI10">
-        <v>2.84</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>45152</v>
@@ -1897,7 +1897,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>86</v>
@@ -1906,96 +1906,96 @@
         <v>120</v>
       </c>
       <c r="G11">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I11">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K11">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="L11">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M11">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O11">
         <v>2.15</v>
       </c>
       <c r="P11">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="Q11">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="R11">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="S11">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="T11">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="U11">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="V11">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="W11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="Z11">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="AA11">
-        <v>3.27</v>
+        <v>2.81</v>
       </c>
       <c r="AB11">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AC11">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF11">
-        <v>1.19</v>
+        <v>1.85</v>
       </c>
       <c r="AG11">
-        <v>1.34</v>
+        <v>2.4</v>
       </c>
       <c r="AH11">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="AI11">
-        <v>1.95</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>45152</v>
@@ -2004,7 +2004,7 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
@@ -2013,91 +2013,91 @@
         <v>121</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I12">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N12">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
+        <v>1.57</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+      <c r="R12">
         <v>2.05</v>
       </c>
-      <c r="P12">
-        <v>1.36</v>
-      </c>
-      <c r="Q12">
-        <v>3.25</v>
-      </c>
-      <c r="R12">
-        <v>1.72</v>
-      </c>
       <c r="S12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="T12">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U12">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="V12">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="Z12">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="AA12">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="AB12">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD12">
         <v>3.1</v>
       </c>
       <c r="AE12">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AF12">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AG12">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AH12">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="AI12">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2111,7 +2111,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
@@ -2120,91 +2120,91 @@
         <v>122</v>
       </c>
       <c r="G13">
-        <v>4.65</v>
+        <v>2.36</v>
       </c>
       <c r="H13">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="J13">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K13">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="L13">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="O13">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="P13">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R13">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="T13">
+        <v>1.39</v>
+      </c>
+      <c r="U13">
+        <v>1.35</v>
+      </c>
+      <c r="V13">
+        <v>1.51</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1.68</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>2.75</v>
+      </c>
+      <c r="AE13">
+        <v>1.32</v>
+      </c>
+      <c r="AF13">
+        <v>1.6</v>
+      </c>
+      <c r="AG13">
         <v>2.05</v>
       </c>
-      <c r="U13">
-        <v>1.28</v>
-      </c>
-      <c r="V13">
-        <v>1.22</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>1.45</v>
-      </c>
-      <c r="Z13">
-        <v>1.74</v>
-      </c>
-      <c r="AA13">
-        <v>3.19</v>
-      </c>
-      <c r="AB13">
-        <v>3.1</v>
-      </c>
-      <c r="AC13">
-        <v>8</v>
-      </c>
-      <c r="AD13">
-        <v>1.5</v>
-      </c>
-      <c r="AE13">
-        <v>1.2</v>
-      </c>
-      <c r="AF13">
-        <v>1.41</v>
-      </c>
-      <c r="AG13">
-        <v>1.72</v>
-      </c>
       <c r="AH13">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AI13">
-        <v>2.79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2218,7 +2218,7 @@
         <v>63</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>89</v>
@@ -2227,91 +2227,91 @@
         <v>123</v>
       </c>
       <c r="G14">
+        <v>2.44</v>
+      </c>
+      <c r="H14">
+        <v>3.1</v>
+      </c>
+      <c r="I14">
+        <v>2.59</v>
+      </c>
+      <c r="J14">
+        <v>1.1</v>
+      </c>
+      <c r="K14">
+        <v>6.5</v>
+      </c>
+      <c r="L14">
+        <v>1.42</v>
+      </c>
+      <c r="M14">
+        <v>2.7</v>
+      </c>
+      <c r="N14">
         <v>2.15</v>
       </c>
-      <c r="H14">
-        <v>3.25</v>
-      </c>
-      <c r="I14">
-        <v>3.75</v>
-      </c>
-      <c r="J14">
-        <v>1.11</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
+      <c r="O14">
+        <v>1.57</v>
+      </c>
+      <c r="P14">
+        <v>1.48</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>1.28</v>
+      </c>
+      <c r="V14">
+        <v>1.5</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.58</v>
+      </c>
+      <c r="Z14">
+        <v>1.35</v>
+      </c>
+      <c r="AA14">
+        <v>2.93</v>
+      </c>
+      <c r="AB14">
+        <v>2.02</v>
+      </c>
+      <c r="AC14">
+        <v>6.8</v>
+      </c>
+      <c r="AD14">
+        <v>2.13</v>
+      </c>
+      <c r="AE14">
         <v>1.47</v>
       </c>
-      <c r="M14">
-        <v>2.6</v>
-      </c>
-      <c r="N14">
-        <v>2.6</v>
-      </c>
-      <c r="O14">
-        <v>1.5</v>
-      </c>
-      <c r="P14">
-        <v>1.57</v>
-      </c>
-      <c r="Q14">
-        <v>2.25</v>
-      </c>
-      <c r="R14">
-        <v>2.2</v>
-      </c>
-      <c r="S14">
-        <v>1.62</v>
-      </c>
-      <c r="T14">
-        <v>1.26</v>
-      </c>
-      <c r="U14">
-        <v>1.37</v>
-      </c>
-      <c r="V14">
-        <v>1.68</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>1.65</v>
-      </c>
-      <c r="AC14">
-        <v>8</v>
-      </c>
-      <c r="AD14">
-        <v>2.63</v>
-      </c>
-      <c r="AE14">
-        <v>1.26</v>
-      </c>
       <c r="AF14">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="AG14">
-        <v>1.82</v>
+        <v>2.33</v>
       </c>
       <c r="AH14">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="AI14">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2325,7 +2325,7 @@
         <v>63</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
@@ -2334,91 +2334,91 @@
         <v>124</v>
       </c>
       <c r="G15">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
+        <v>2.6</v>
+      </c>
+      <c r="O15">
+        <v>1.43</v>
+      </c>
+      <c r="P15">
+        <v>1.57</v>
+      </c>
+      <c r="Q15">
         <v>2.25</v>
       </c>
-      <c r="O15">
-        <v>1.6</v>
-      </c>
-      <c r="P15">
-        <v>1.48</v>
-      </c>
-      <c r="Q15">
-        <v>2.5</v>
-      </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T15">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U15">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="V15">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="AC15">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="AE15">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AF15">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="AG15">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="AH15">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="AI15">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2441,13 +2441,13 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I16">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>126</v>
       </c>
       <c r="G17">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="H17">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I17">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2569,10 +2569,10 @@
         <v>5.61</v>
       </c>
       <c r="N17">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="O17">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="P17">
         <v>1.28</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>45152</v>
@@ -2655,52 +2655,52 @@
         <v>127</v>
       </c>
       <c r="G18">
-        <v>2.78</v>
+        <v>2.33</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J18">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M18">
-        <v>4.12</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
         <v>1.36</v>
       </c>
       <c r="Q18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T18">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="U18">
         <v>1.3</v>
       </c>
       <c r="V18">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2718,28 +2718,28 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AC18">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD18">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AE18">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AF18">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AG18">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="AH18">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="AI18">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2762,37 +2762,37 @@
         <v>128</v>
       </c>
       <c r="G19">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="H19">
-        <v>3.3</v>
+        <v>3.97</v>
       </c>
       <c r="I19">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="J19">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L19">
+        <v>1.2</v>
+      </c>
+      <c r="M19">
+        <v>4.33</v>
+      </c>
+      <c r="N19">
+        <v>1.6</v>
+      </c>
+      <c r="O19">
+        <v>2.2</v>
+      </c>
+      <c r="P19">
         <v>1.3</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>1.85</v>
-      </c>
-      <c r="O19">
-        <v>1.85</v>
-      </c>
-      <c r="P19">
-        <v>1.36</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
       </c>
       <c r="R19">
         <v>1.67</v>
@@ -2801,13 +2801,13 @@
         <v>2.1</v>
       </c>
       <c r="T19">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="U19">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V19">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2825,33 +2825,33 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AE19">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF19">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="AG19">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AH19">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AI19">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>45152</v>
@@ -2869,52 +2869,52 @@
         <v>129</v>
       </c>
       <c r="G20">
-        <v>1.6</v>
+        <v>2.85</v>
       </c>
       <c r="H20">
-        <v>3.97</v>
+        <v>3.5</v>
       </c>
       <c r="I20">
-        <v>4.7</v>
+        <v>2.39</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M20">
-        <v>4.33</v>
+        <v>4.12</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
       </c>
       <c r="R20">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="U20">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2932,33 +2932,33 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.37</v>
+        <v>1.98</v>
       </c>
       <c r="AC20">
-        <v>6.25</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD20">
-        <v>3.45</v>
+        <v>2.11</v>
       </c>
       <c r="AE20">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AG20">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH20">
         <v>2.55</v>
       </c>
       <c r="AI20">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>45152</v>
@@ -2967,7 +2967,7 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>96</v>
@@ -2976,96 +2976,96 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>1.63</v>
+        <v>3.4</v>
       </c>
       <c r="J21">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="L21">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M21">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="N21">
+        <v>1.87</v>
+      </c>
+      <c r="O21">
         <v>1.83</v>
       </c>
-      <c r="O21">
+      <c r="P21">
+        <v>1.39</v>
+      </c>
+      <c r="Q21">
+        <v>2.86</v>
+      </c>
+      <c r="R21">
+        <v>1.74</v>
+      </c>
+      <c r="S21">
+        <v>1.98</v>
+      </c>
+      <c r="T21">
+        <v>1.31</v>
+      </c>
+      <c r="U21">
+        <v>1.3</v>
+      </c>
+      <c r="V21">
+        <v>1.74</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1.27</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2.27</v>
+      </c>
+      <c r="AB21">
+        <v>1.73</v>
+      </c>
+      <c r="AC21">
+        <v>9.4</v>
+      </c>
+      <c r="AD21">
+        <v>2.38</v>
+      </c>
+      <c r="AE21">
+        <v>1.15</v>
+      </c>
+      <c r="AF21">
+        <v>1.29</v>
+      </c>
+      <c r="AG21">
+        <v>1.56</v>
+      </c>
+      <c r="AH21">
         <v>1.9</v>
       </c>
-      <c r="P21">
-        <v>1.36</v>
-      </c>
-      <c r="Q21">
-        <v>2.99</v>
-      </c>
-      <c r="R21">
-        <v>1.84</v>
-      </c>
-      <c r="S21">
-        <v>1.9</v>
-      </c>
-      <c r="T21">
-        <v>2.22</v>
-      </c>
-      <c r="U21">
-        <v>1.25</v>
-      </c>
-      <c r="V21">
-        <v>1.17</v>
-      </c>
-      <c r="W21">
-        <v>1.5</v>
-      </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
-      <c r="Y21">
-        <v>1.25</v>
-      </c>
-      <c r="Z21">
-        <v>0.71</v>
-      </c>
-      <c r="AA21">
-        <v>1.96</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>45152</v>
@@ -3074,7 +3074,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>97</v>
@@ -3083,91 +3083,91 @@
         <v>131</v>
       </c>
       <c r="G22">
-        <v>2.05</v>
+        <v>4.9</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K22">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M22">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
+        <v>1.91</v>
+      </c>
+      <c r="P22">
+        <v>1.36</v>
+      </c>
+      <c r="Q22">
+        <v>2.99</v>
+      </c>
+      <c r="R22">
+        <v>1.84</v>
+      </c>
+      <c r="S22">
         <v>1.9</v>
       </c>
-      <c r="O22">
-        <v>1.83</v>
-      </c>
-      <c r="P22">
-        <v>1.39</v>
-      </c>
-      <c r="Q22">
-        <v>2.86</v>
-      </c>
-      <c r="R22">
-        <v>1.74</v>
-      </c>
-      <c r="S22">
-        <v>1.98</v>
-      </c>
       <c r="T22">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="U22">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AA22">
-        <v>2.27</v>
+        <v>1.96</v>
       </c>
       <c r="AB22">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF22">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AG22">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AH22">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="AI22">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3190,13 +3190,13 @@
         <v>132</v>
       </c>
       <c r="G23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="H23">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3211,10 +3211,10 @@
         <v>3.32</v>
       </c>
       <c r="N23">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O23">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P23">
         <v>1.38</v>
@@ -3404,13 +3404,13 @@
         <v>134</v>
       </c>
       <c r="G25">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="H25">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2">
         <v>45152</v>
@@ -3511,13 +3511,13 @@
         <v>135</v>
       </c>
       <c r="G26">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H26">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -3532,10 +3532,10 @@
         <v>4.4</v>
       </c>
       <c r="N26">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O26">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P26">
         <v>1.3</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45152</v>
@@ -3618,13 +3618,13 @@
         <v>136</v>
       </c>
       <c r="G27">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H27">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I27">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J27">
         <v>1.1</v>
@@ -3633,16 +3633,16 @@
         <v>7</v>
       </c>
       <c r="L27">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M27">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="O27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P27">
         <v>1.57</v>
@@ -3725,13 +3725,13 @@
         <v>137</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>8.93</v>
       </c>
       <c r="H28">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I28">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         <v>138</v>
       </c>
       <c r="G29">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="H29">
-        <v>3.71</v>
+        <v>3.25</v>
       </c>
       <c r="I29">
-        <v>3.87</v>
+        <v>3.2</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="O29">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -3966,10 +3966,10 @@
         <v>1.8</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R30">
         <v>2.05</v>
@@ -3978,13 +3978,13 @@
         <v>1.7</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="W30">
         <v>2.13</v>
@@ -4011,19 +4011,19 @@
         <v>2.9</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4046,13 +4046,13 @@
         <v>140</v>
       </c>
       <c r="G31">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="H31">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I31">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J31">
         <v>1.11</v>
@@ -4064,10 +4064,10 @@
         <v>1.57</v>
       </c>
       <c r="M31">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O31">
         <v>1.4</v>
@@ -4153,13 +4153,13 @@
         <v>141</v>
       </c>
       <c r="G32">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H32">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I32">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J32">
         <v>1.1</v>
@@ -4168,10 +4168,10 @@
         <v>7.2</v>
       </c>
       <c r="L32">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M32">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="N32">
         <v>2.4</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -4260,13 +4260,13 @@
         <v>142</v>
       </c>
       <c r="G33">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="H33">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="I33">
-        <v>3.39</v>
+        <v>2.8</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O33">
         <v>1.85</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2">
         <v>45152</v>
@@ -4358,7 +4358,7 @@
         <v>76</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
         <v>109</v>
@@ -4367,31 +4367,31 @@
         <v>143</v>
       </c>
       <c r="G34">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="H34">
         <v>3.75</v>
       </c>
       <c r="I34">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K34">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="L34">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P34">
         <v>1.4</v>
@@ -4400,63 +4400,63 @@
         <v>2.75</v>
       </c>
       <c r="R34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T34">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="U34">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V34">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="W34">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>1.1</v>
+        <v>0.63</v>
       </c>
       <c r="Y34">
-        <v>1.54</v>
+        <v>2.11</v>
       </c>
       <c r="Z34">
+        <v>1.44</v>
+      </c>
+      <c r="AA34">
+        <v>3.55</v>
+      </c>
+      <c r="AB34">
+        <v>1.38</v>
+      </c>
+      <c r="AC34">
+        <v>9.5</v>
+      </c>
+      <c r="AD34">
+        <v>3.7</v>
+      </c>
+      <c r="AE34">
+        <v>1.09</v>
+      </c>
+      <c r="AF34">
         <v>1.3</v>
       </c>
-      <c r="AA34">
-        <v>2.84</v>
-      </c>
-      <c r="AB34">
-        <v>1.28</v>
-      </c>
-      <c r="AC34">
-        <v>6.75</v>
-      </c>
-      <c r="AD34">
-        <v>4.25</v>
-      </c>
-      <c r="AE34">
-        <v>1.42</v>
-      </c>
-      <c r="AF34">
-        <v>1.8</v>
-      </c>
       <c r="AG34">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
       <c r="AH34">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="AI34">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
         <v>45152</v>
@@ -4465,7 +4465,7 @@
         <v>76</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
         <v>110</v>
@@ -4474,91 +4474,91 @@
         <v>144</v>
       </c>
       <c r="G35">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="H35">
-        <v>3.87</v>
+        <v>3.55</v>
       </c>
       <c r="I35">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N35">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="O35">
+        <v>1.93</v>
+      </c>
+      <c r="P35">
+        <v>1.4</v>
+      </c>
+      <c r="Q35">
+        <v>2.75</v>
+      </c>
+      <c r="R35">
+        <v>1.83</v>
+      </c>
+      <c r="S35">
+        <v>1.83</v>
+      </c>
+      <c r="T35">
+        <v>1.18</v>
+      </c>
+      <c r="U35">
+        <v>1.22</v>
+      </c>
+      <c r="V35">
+        <v>2.15</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>1.1</v>
+      </c>
+      <c r="Y35">
+        <v>1.54</v>
+      </c>
+      <c r="Z35">
+        <v>1.3</v>
+      </c>
+      <c r="AA35">
+        <v>2.84</v>
+      </c>
+      <c r="AB35">
+        <v>1.28</v>
+      </c>
+      <c r="AC35">
+        <v>6.75</v>
+      </c>
+      <c r="AD35">
+        <v>4.25</v>
+      </c>
+      <c r="AE35">
+        <v>1.42</v>
+      </c>
+      <c r="AF35">
         <v>1.8</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.75</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
-      <c r="X35">
-        <v>0.63</v>
-      </c>
-      <c r="Y35">
-        <v>2.11</v>
-      </c>
-      <c r="Z35">
-        <v>1.44</v>
-      </c>
-      <c r="AA35">
-        <v>3.55</v>
-      </c>
-      <c r="AB35">
-        <v>1.38</v>
-      </c>
-      <c r="AC35">
-        <v>9.5</v>
-      </c>
-      <c r="AD35">
-        <v>3.7</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,21 +133,21 @@
     <t>Russia Russian Premier League</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Netherlands Eerste Divisie</t>
-  </si>
-  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
@@ -262,27 +262,27 @@
     <t>Olimpiyets</t>
   </si>
   <si>
+    <t>Mirandés</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
-    <t>Värnamo</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Warta Poznań</t>
-  </si>
-  <si>
-    <t>Mirandés</t>
-  </si>
-  <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
@@ -292,24 +292,24 @@
     <t>Moreirense FC</t>
   </si>
   <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
     <t>Fatih Karagümrük</t>
   </si>
   <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Levski Krumovgrad</t>
+  </si>
+  <si>
     <t>Koper</t>
   </si>
   <si>
-    <t>Levski Krumovgrad</t>
-  </si>
-  <si>
     <t>Bordeaux</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Sportivo Trinidense</t>
   </si>
   <si>
+    <t>Universidad Chile</t>
+  </si>
+  <si>
     <t>Bragantino</t>
   </si>
   <si>
-    <t>Universidad Chile</t>
-  </si>
-  <si>
     <t>Gyeongnam</t>
   </si>
   <si>
@@ -364,27 +364,27 @@
     <t>Akhmat Grozny</t>
   </si>
   <si>
+    <t>AD Alcorcón</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
     <t>Jönköpings Södra</t>
   </si>
   <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
     <t>Malmö FF</t>
   </si>
   <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Skövde AIK</t>
-  </si>
-  <si>
-    <t>Hvidovre</t>
-  </si>
-  <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>AD Alcorcón</t>
-  </si>
-  <si>
     <t>Botoşani</t>
   </si>
   <si>
@@ -394,24 +394,24 @@
     <t>Porto</t>
   </si>
   <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Beşiktaş</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
+    <t>CSKA 1948 Sofia</t>
+  </si>
+  <si>
     <t>Mura</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
     <t>Concarneau</t>
   </si>
   <si>
@@ -445,10 +445,10 @@
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Curicó Unido</t>
+  </si>
+  <si>
     <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Curicó Unido</t>
   </si>
 </sst>
 </file>
@@ -943,13 +943,13 @@
         <v>111</v>
       </c>
       <c r="G2">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -964,10 +964,10 @@
         <v>3.34</v>
       </c>
       <c r="N2">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P2">
         <v>1.38</v>
@@ -991,10 +991,10 @@
         <v>1.46</v>
       </c>
       <c r="W2">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="X2">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="Y2">
         <v>1.35</v>
@@ -1050,13 +1050,13 @@
         <v>112</v>
       </c>
       <c r="G3">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1071,10 +1071,10 @@
         <v>2.64</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="P3">
         <v>1.5</v>
@@ -1157,13 +1157,13 @@
         <v>113</v>
       </c>
       <c r="G4">
-        <v>2.09</v>
+        <v>2.53</v>
       </c>
       <c r="H4">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>2.53</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -1178,7 +1178,7 @@
         <v>2.54</v>
       </c>
       <c r="N4">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -1220,28 +1220,28 @@
         <v>2.49</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1264,13 +1264,13 @@
         <v>114</v>
       </c>
       <c r="G5">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H5">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="I5">
-        <v>4.7</v>
+        <v>4.61</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
         <v>1.46</v>
@@ -1327,28 +1327,28 @@
         <v>3.41</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1371,13 +1371,13 @@
         <v>115</v>
       </c>
       <c r="G6">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="H6">
         <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1392,10 +1392,10 @@
         <v>2.75</v>
       </c>
       <c r="N6">
-        <v>2.24</v>
+        <v>2.33</v>
       </c>
       <c r="O6">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="P6">
         <v>1.48</v>
@@ -1469,7 +1469,7 @@
         <v>62</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>82</v>
@@ -1478,91 +1478,91 @@
         <v>116</v>
       </c>
       <c r="G7">
-        <v>2.03</v>
+        <v>2.34</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="J7">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q7">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
         <v>1.67</v>
       </c>
-      <c r="S7">
-        <v>2.1</v>
-      </c>
       <c r="T7">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="U7">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V7">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="W7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE7">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AF7">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AG7">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="AH7">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="AI7">
-        <v>2.84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1576,7 +1576,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
@@ -1585,96 +1585,96 @@
         <v>117</v>
       </c>
       <c r="G8">
-        <v>4.15</v>
+        <v>1.9</v>
       </c>
       <c r="H8">
-        <v>3.65</v>
+        <v>3.01</v>
       </c>
       <c r="I8">
-        <v>1.77</v>
+        <v>3.69</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K8">
-        <v>11.75</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
-        <v>1.84</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="P8">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="T8">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="U8">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="V8">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8">
+        <v>1.24</v>
+      </c>
+      <c r="Z8">
+        <v>0.87</v>
+      </c>
+      <c r="AA8">
+        <v>2.11</v>
+      </c>
+      <c r="AB8">
+        <v>1.55</v>
+      </c>
+      <c r="AC8">
+        <v>7.5</v>
+      </c>
+      <c r="AD8">
+        <v>3.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.27</v>
+      </c>
+      <c r="AF8">
         <v>1.45</v>
       </c>
-      <c r="Z8">
-        <v>1.74</v>
-      </c>
-      <c r="AA8">
-        <v>3.19</v>
-      </c>
-      <c r="AB8">
+      <c r="AG8">
+        <v>1.8</v>
+      </c>
+      <c r="AH8">
+        <v>2.32</v>
+      </c>
+      <c r="AI8">
         <v>3.1</v>
-      </c>
-      <c r="AC8">
-        <v>8</v>
-      </c>
-      <c r="AD8">
-        <v>1.5</v>
-      </c>
-      <c r="AE8">
-        <v>1.2</v>
-      </c>
-      <c r="AF8">
-        <v>1.41</v>
-      </c>
-      <c r="AG8">
-        <v>1.72</v>
-      </c>
-      <c r="AH8">
-        <v>2.15</v>
-      </c>
-      <c r="AI8">
-        <v>2.79</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>45152</v>
@@ -1683,7 +1683,7 @@
         <v>62</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
@@ -1692,96 +1692,96 @@
         <v>118</v>
       </c>
       <c r="G9">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="H9">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="I9">
-        <v>3.7</v>
+        <v>4.18</v>
       </c>
       <c r="J9">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="L9">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="O9">
+        <v>2.15</v>
+      </c>
+      <c r="P9">
+        <v>1.27</v>
+      </c>
+      <c r="Q9">
+        <v>3.4</v>
+      </c>
+      <c r="R9">
+        <v>1.71</v>
+      </c>
+      <c r="S9">
+        <v>2.09</v>
+      </c>
+      <c r="T9">
+        <v>1.14</v>
+      </c>
+      <c r="U9">
+        <v>1.17</v>
+      </c>
+      <c r="V9">
+        <v>2.55</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.76</v>
+      </c>
+      <c r="Z9">
+        <v>1.05</v>
+      </c>
+      <c r="AA9">
+        <v>2.81</v>
+      </c>
+      <c r="AB9">
+        <v>1.52</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>3.25</v>
+      </c>
+      <c r="AE9">
+        <v>1.46</v>
+      </c>
+      <c r="AF9">
         <v>1.85</v>
       </c>
-      <c r="P9">
-        <v>1.36</v>
-      </c>
-      <c r="Q9">
-        <v>3.25</v>
-      </c>
-      <c r="R9">
-        <v>1.72</v>
-      </c>
-      <c r="S9">
-        <v>2.1</v>
-      </c>
-      <c r="T9">
-        <v>1.22</v>
-      </c>
-      <c r="U9">
-        <v>1.22</v>
-      </c>
-      <c r="V9">
-        <v>2.1</v>
-      </c>
-      <c r="W9">
-        <v>1.13</v>
-      </c>
-      <c r="X9">
-        <v>0.38</v>
-      </c>
-      <c r="Y9">
-        <v>1.13</v>
-      </c>
-      <c r="Z9">
-        <v>1.13</v>
-      </c>
-      <c r="AA9">
-        <v>2.26</v>
-      </c>
-      <c r="AB9">
-        <v>1.5</v>
-      </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>3.1</v>
-      </c>
-      <c r="AE9">
-        <v>1.1</v>
-      </c>
-      <c r="AF9">
-        <v>1.22</v>
-      </c>
       <c r="AG9">
-        <v>1.43</v>
+        <v>2.4</v>
       </c>
       <c r="AH9">
-        <v>1.74</v>
+        <v>3.2</v>
       </c>
       <c r="AI9">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>45152</v>
@@ -1799,96 +1799,96 @@
         <v>119</v>
       </c>
       <c r="G10">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="H10">
+        <v>3.17</v>
+      </c>
+      <c r="I10">
+        <v>2.8</v>
+      </c>
+      <c r="J10">
+        <v>1.05</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>1.25</v>
+      </c>
+      <c r="M10">
         <v>3.75</v>
       </c>
-      <c r="I10">
-        <v>3.75</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>10.5</v>
-      </c>
-      <c r="L10">
-        <v>1.19</v>
-      </c>
-      <c r="M10">
-        <v>4.1</v>
-      </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P10">
         <v>1.33</v>
       </c>
       <c r="Q10">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R10">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="T10">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="U10">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="V10">
-        <v>2.11</v>
+        <v>1.73</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="Z10">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="AA10">
-        <v>3.27</v>
+        <v>2.68</v>
       </c>
       <c r="AB10">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="AC10">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD10">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF10">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AG10">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AH10">
-        <v>1.58</v>
+        <v>2.14</v>
       </c>
       <c r="AI10">
-        <v>1.95</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>45152</v>
@@ -1897,7 +1897,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>86</v>
@@ -1906,96 +1906,96 @@
         <v>120</v>
       </c>
       <c r="G11">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="H11">
-        <v>3.95</v>
+        <v>3.44</v>
       </c>
       <c r="I11">
-        <v>4.3</v>
+        <v>3.79</v>
       </c>
       <c r="J11">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N11">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="R11">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="S11">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="T11">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="U11">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="V11">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X11">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="Y11">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AA11">
-        <v>2.81</v>
+        <v>3.27</v>
       </c>
       <c r="AB11">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AE11">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="AG11">
-        <v>2.4</v>
+        <v>1.34</v>
       </c>
       <c r="AH11">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="AI11">
-        <v>5.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>45152</v>
@@ -2004,7 +2004,7 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
@@ -2013,91 +2013,91 @@
         <v>121</v>
       </c>
       <c r="G12">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="H12">
+        <v>3.2</v>
+      </c>
+      <c r="I12">
+        <v>3.46</v>
+      </c>
+      <c r="J12">
+        <v>1.04</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1.87</v>
+      </c>
+      <c r="O12">
+        <v>1.74</v>
+      </c>
+      <c r="P12">
+        <v>1.36</v>
+      </c>
+      <c r="Q12">
         <v>3.25</v>
       </c>
-      <c r="I12">
-        <v>3.5</v>
-      </c>
-      <c r="J12">
-        <v>1.08</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>1.4</v>
-      </c>
-      <c r="M12">
-        <v>2.8</v>
-      </c>
-      <c r="N12">
-        <v>2.15</v>
-      </c>
-      <c r="O12">
-        <v>1.57</v>
-      </c>
-      <c r="P12">
+      <c r="R12">
+        <v>1.72</v>
+      </c>
+      <c r="S12">
+        <v>2.1</v>
+      </c>
+      <c r="T12">
+        <v>1.22</v>
+      </c>
+      <c r="U12">
+        <v>1.22</v>
+      </c>
+      <c r="V12">
+        <v>2.1</v>
+      </c>
+      <c r="W12">
+        <v>1.13</v>
+      </c>
+      <c r="X12">
+        <v>0.38</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>1.13</v>
+      </c>
+      <c r="AA12">
+        <v>2.26</v>
+      </c>
+      <c r="AB12">
         <v>1.5</v>
       </c>
-      <c r="Q12">
-        <v>2.5</v>
-      </c>
-      <c r="R12">
-        <v>2.05</v>
-      </c>
-      <c r="S12">
-        <v>1.7</v>
-      </c>
-      <c r="T12">
-        <v>1.2</v>
-      </c>
-      <c r="U12">
-        <v>1.33</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
-      </c>
-      <c r="W12">
-        <v>1.5</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>1.24</v>
-      </c>
-      <c r="Z12">
-        <v>0.87</v>
-      </c>
-      <c r="AA12">
-        <v>2.11</v>
-      </c>
-      <c r="AB12">
-        <v>1.55</v>
-      </c>
       <c r="AC12">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD12">
         <v>3.1</v>
       </c>
       <c r="AE12">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AF12">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AG12">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AH12">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="AI12">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2111,7 +2111,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
@@ -2120,91 +2120,91 @@
         <v>122</v>
       </c>
       <c r="G13">
-        <v>2.36</v>
+        <v>4.09</v>
       </c>
       <c r="H13">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>3.05</v>
+        <v>1.7</v>
       </c>
       <c r="J13">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="L13">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M13">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="O13">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="P13">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q13">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S13">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="T13">
-        <v>1.39</v>
+        <v>2.05</v>
       </c>
       <c r="U13">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="V13">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AB13">
-        <v>1.68</v>
+        <v>3.1</v>
       </c>
       <c r="AC13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AE13">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AF13">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AG13">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="AH13">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="AI13">
-        <v>4</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2227,13 +2227,13 @@
         <v>123</v>
       </c>
       <c r="G14">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="I14">
-        <v>2.59</v>
+        <v>2.92</v>
       </c>
       <c r="J14">
         <v>1.1</v>
@@ -2334,13 +2334,13 @@
         <v>124</v>
       </c>
       <c r="G15">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I15">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="J15">
         <v>1.11</v>
@@ -2355,10 +2355,10 @@
         <v>2.4</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O15">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
         <v>1.57</v>
@@ -2441,13 +2441,13 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>8.02</v>
+        <v>7.68</v>
       </c>
       <c r="H16">
-        <v>4.9</v>
+        <v>4.77</v>
       </c>
       <c r="I16">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O16">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2548,52 +2548,52 @@
         <v>126</v>
       </c>
       <c r="G17">
-        <v>4.7</v>
+        <v>2.33</v>
       </c>
       <c r="H17">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="J17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K17">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="M17">
-        <v>5.61</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>2.63</v>
+        <v>1.85</v>
       </c>
       <c r="P17">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="S17">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="U17">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V17">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2611,33 +2611,33 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>3.26</v>
+        <v>1.95</v>
       </c>
       <c r="AC17">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>1.46</v>
+        <v>2.25</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF17">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="AG17">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>2.21</v>
+        <v>2.9</v>
       </c>
       <c r="AI17">
-        <v>2.93</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>45152</v>
@@ -2655,37 +2655,37 @@
         <v>127</v>
       </c>
       <c r="G18">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.97</v>
       </c>
       <c r="I18">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="J18">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L18">
+        <v>1.2</v>
+      </c>
+      <c r="M18">
+        <v>4.33</v>
+      </c>
+      <c r="N18">
+        <v>1.6</v>
+      </c>
+      <c r="O18">
+        <v>2.2</v>
+      </c>
+      <c r="P18">
         <v>1.3</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.85</v>
-      </c>
-      <c r="O18">
-        <v>1.85</v>
-      </c>
-      <c r="P18">
-        <v>1.36</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
       </c>
       <c r="R18">
         <v>1.67</v>
@@ -2694,13 +2694,13 @@
         <v>2.1</v>
       </c>
       <c r="T18">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="U18">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V18">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2718,28 +2718,28 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="AC18">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AD18">
-        <v>2.25</v>
+        <v>3.45</v>
       </c>
       <c r="AE18">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF18">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="AG18">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AH18">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AI18">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2762,53 +2762,53 @@
         <v>128</v>
       </c>
       <c r="G19">
-        <v>1.6</v>
+        <v>2.86</v>
       </c>
       <c r="H19">
-        <v>3.97</v>
+        <v>3.55</v>
       </c>
       <c r="I19">
-        <v>4.7</v>
+        <v>2.01</v>
       </c>
       <c r="J19">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="M19">
-        <v>4.33</v>
+        <v>5.61</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q19">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S19">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="T19">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="U19">
+        <v>1.25</v>
+      </c>
+      <c r="V19">
         <v>1.22</v>
       </c>
-      <c r="V19">
-        <v>2.25</v>
-      </c>
       <c r="W19">
         <v>0</v>
       </c>
@@ -2825,33 +2825,33 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.37</v>
+        <v>3.26</v>
       </c>
       <c r="AC19">
-        <v>6.25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19">
-        <v>3.45</v>
+        <v>1.46</v>
       </c>
       <c r="AE19">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF19">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AG19">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="AH19">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AI19">
-        <v>3.5</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>45152</v>
@@ -2869,13 +2869,13 @@
         <v>129</v>
       </c>
       <c r="G20">
-        <v>2.85</v>
+        <v>2.59</v>
       </c>
       <c r="H20">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="I20">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="J20">
         <v>1.04</v>
@@ -2890,10 +2890,10 @@
         <v>4.12</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O20">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P20">
         <v>1.36</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>45152</v>
@@ -2967,7 +2967,7 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>96</v>
@@ -2976,96 +2976,96 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4.52</v>
       </c>
       <c r="H21">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="I21">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K21">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M21">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="N21">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O21">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="P21">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q21">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="R21">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="S21">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="U21">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
       <c r="Y21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AA21">
-        <v>2.27</v>
+        <v>1.96</v>
       </c>
       <c r="AB21">
-        <v>1.73</v>
+        <v>3.08</v>
       </c>
       <c r="AC21">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD21">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="AE21">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AF21">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AG21">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AH21">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="AI21">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>45152</v>
@@ -3074,7 +3074,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>97</v>
@@ -3083,91 +3083,91 @@
         <v>131</v>
       </c>
       <c r="G22">
-        <v>4.9</v>
+        <v>1.95</v>
       </c>
       <c r="H22">
-        <v>3.7</v>
+        <v>3.17</v>
       </c>
       <c r="I22">
-        <v>1.65</v>
+        <v>3.02</v>
       </c>
       <c r="J22">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K22">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="L22">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M22">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O22">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="P22">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Q22">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="R22">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="S22">
+        <v>1.98</v>
+      </c>
+      <c r="T22">
+        <v>1.31</v>
+      </c>
+      <c r="U22">
+        <v>1.3</v>
+      </c>
+      <c r="V22">
+        <v>1.74</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1.27</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>2.27</v>
+      </c>
+      <c r="AB22">
+        <v>1.73</v>
+      </c>
+      <c r="AC22">
+        <v>9.4</v>
+      </c>
+      <c r="AD22">
+        <v>2.38</v>
+      </c>
+      <c r="AE22">
+        <v>1.15</v>
+      </c>
+      <c r="AF22">
+        <v>1.29</v>
+      </c>
+      <c r="AG22">
+        <v>1.56</v>
+      </c>
+      <c r="AH22">
         <v>1.9</v>
       </c>
-      <c r="T22">
-        <v>2.22</v>
-      </c>
-      <c r="U22">
-        <v>1.25</v>
-      </c>
-      <c r="V22">
-        <v>1.17</v>
-      </c>
-      <c r="W22">
-        <v>1.5</v>
-      </c>
-      <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="Y22">
-        <v>1.25</v>
-      </c>
-      <c r="Z22">
-        <v>0.71</v>
-      </c>
-      <c r="AA22">
-        <v>1.96</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1.24</v>
-      </c>
-      <c r="AF22">
-        <v>1.46</v>
-      </c>
-      <c r="AG22">
-        <v>1.81</v>
-      </c>
-      <c r="AH22">
-        <v>2.35</v>
-      </c>
       <c r="AI22">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3190,13 +3190,13 @@
         <v>132</v>
       </c>
       <c r="G23">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H23">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="I23">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3211,10 +3211,10 @@
         <v>3.32</v>
       </c>
       <c r="N23">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="O23">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="P23">
         <v>1.38</v>
@@ -3404,13 +3404,13 @@
         <v>134</v>
       </c>
       <c r="G25">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="H25">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="I25">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3425,10 +3425,10 @@
         <v>5</v>
       </c>
       <c r="N25">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O25">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
         <v>1.25</v>
@@ -3476,7 +3476,7 @@
         <v>1.87</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF25">
         <v>1.16</v>
@@ -3511,13 +3511,13 @@
         <v>135</v>
       </c>
       <c r="G26">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H26">
-        <v>4.3</v>
+        <v>4.79</v>
       </c>
       <c r="I26">
-        <v>9.6</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
         <v>45152</v>
@@ -3618,13 +3618,13 @@
         <v>136</v>
       </c>
       <c r="G27">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="H27">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I27">
-        <v>3.55</v>
+        <v>3.11</v>
       </c>
       <c r="J27">
         <v>1.1</v>
@@ -3639,10 +3639,10 @@
         <v>2.4</v>
       </c>
       <c r="N27">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="O27">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="P27">
         <v>1.57</v>
@@ -3725,13 +3725,13 @@
         <v>137</v>
       </c>
       <c r="G28">
-        <v>8.93</v>
+        <v>7.77</v>
       </c>
       <c r="H28">
-        <v>5.5</v>
+        <v>4.38</v>
       </c>
       <c r="I28">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O28">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         <v>138</v>
       </c>
       <c r="G29">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="H29">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="I29">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="O29">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3939,13 +3939,13 @@
         <v>139</v>
       </c>
       <c r="G30">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H30">
         <v>4</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J30">
         <v>1.06</v>
@@ -3972,10 +3972,10 @@
         <v>2.75</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T30">
         <v>1.04</v>
@@ -4046,13 +4046,13 @@
         <v>140</v>
       </c>
       <c r="G31">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H31">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J31">
         <v>1.11</v>
@@ -4061,10 +4061,10 @@
         <v>5.5</v>
       </c>
       <c r="L31">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
         <v>2.75</v>
@@ -4153,13 +4153,13 @@
         <v>141</v>
       </c>
       <c r="G32">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="H32">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="I32">
-        <v>2.8</v>
+        <v>2.49</v>
       </c>
       <c r="J32">
         <v>1.1</v>
@@ -4168,16 +4168,16 @@
         <v>7.2</v>
       </c>
       <c r="L32">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M32">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N32">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="O32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P32">
         <v>1.55</v>
@@ -4216,25 +4216,25 @@
         <v>3.22</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG32">
         <v>2</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4260,13 +4260,13 @@
         <v>142</v>
       </c>
       <c r="G33">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="H33">
         <v>3.35</v>
       </c>
       <c r="I33">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="N33">
+        <v>1.79</v>
+      </c>
+      <c r="O33">
         <v>1.93</v>
-      </c>
-      <c r="O33">
-        <v>1.85</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <v>45152</v>
@@ -4358,7 +4358,7 @@
         <v>76</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
         <v>109</v>
@@ -4367,28 +4367,28 @@
         <v>143</v>
       </c>
       <c r="G34">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H34">
-        <v>3.75</v>
+        <v>3.14</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>3.76</v>
       </c>
       <c r="J34">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="L34">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
         <v>1.8</v>
@@ -4400,63 +4400,63 @@
         <v>2.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S34">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T34">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="U34">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="V34">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X34">
-        <v>0.63</v>
+        <v>1.1</v>
       </c>
       <c r="Y34">
-        <v>2.11</v>
+        <v>1.54</v>
       </c>
       <c r="Z34">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AA34">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="AB34">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AC34">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="AD34">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="AE34">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AF34">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AG34">
-        <v>1.53</v>
+        <v>2.33</v>
       </c>
       <c r="AH34">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="AI34">
-        <v>2.32</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>45152</v>
@@ -4465,7 +4465,7 @@
         <v>76</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>110</v>
@@ -4474,31 +4474,31 @@
         <v>144</v>
       </c>
       <c r="G35">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H35">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J35">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K35">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="L35">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="P35">
         <v>1.4</v>
@@ -4507,58 +4507,58 @@
         <v>2.75</v>
       </c>
       <c r="R35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T35">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="U35">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V35">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="W35">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X35">
-        <v>1.1</v>
+        <v>0.63</v>
       </c>
       <c r="Y35">
-        <v>1.54</v>
+        <v>2.11</v>
       </c>
       <c r="Z35">
+        <v>1.44</v>
+      </c>
+      <c r="AA35">
+        <v>3.55</v>
+      </c>
+      <c r="AB35">
+        <v>1.38</v>
+      </c>
+      <c r="AC35">
+        <v>9.5</v>
+      </c>
+      <c r="AD35">
+        <v>3.65</v>
+      </c>
+      <c r="AE35">
+        <v>1.09</v>
+      </c>
+      <c r="AF35">
         <v>1.3</v>
       </c>
-      <c r="AA35">
-        <v>2.84</v>
-      </c>
-      <c r="AB35">
-        <v>1.28</v>
-      </c>
-      <c r="AC35">
-        <v>6.75</v>
-      </c>
-      <c r="AD35">
-        <v>4.25</v>
-      </c>
-      <c r="AE35">
-        <v>1.42</v>
-      </c>
-      <c r="AF35">
-        <v>1.8</v>
-      </c>
       <c r="AG35">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
       <c r="AH35">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="AI35">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
     </row>
   </sheetData>
